--- a/Cleaned-Data/2018-Passouts/Sem-5_2018_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2018-Passouts/Sem-5_2018_Passout_cleaned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="204">
   <si>
     <t>MP-TW</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>WTL-PR</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>P*</t>
@@ -1056,7 +1053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1089,13 +1088,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1152,18 +1151,18 @@
         <v>17</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -1229,7 +1228,7 @@
         <v>43</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X2" s="1">
         <v>7</v>
@@ -1237,7 +1236,7 @@
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -1303,7 +1302,7 @@
         <v>42</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X3" s="1">
         <v>7.29</v>
@@ -1311,7 +1310,7 @@
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1377,7 +1376,7 @@
         <v>40</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X4" s="1">
         <v>8.67</v>
@@ -1385,7 +1384,7 @@
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -1451,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X5" s="1">
         <v>7.08</v>
@@ -1459,7 +1458,7 @@
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1525,7 +1524,7 @@
         <v>43</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X6" s="1">
         <v>7.83</v>
@@ -1533,7 +1532,7 @@
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1599,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X7" s="1">
         <v>7.83</v>
@@ -1607,7 +1606,7 @@
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -1673,7 +1672,7 @@
         <v>43</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X8" s="1">
         <v>7.5</v>
@@ -1681,7 +1680,7 @@
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -1747,7 +1746,7 @@
         <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X9" s="1">
         <v>7.5</v>
@@ -1755,7 +1754,7 @@
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -1821,7 +1820,7 @@
         <v>41</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X10" s="1">
         <v>7.33</v>
@@ -1829,7 +1828,7 @@
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -1895,15 +1894,15 @@
         <v>41</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -1969,7 +1968,7 @@
         <v>40</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X12" s="1">
         <v>9</v>
@@ -1977,7 +1976,7 @@
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -2043,15 +2042,15 @@
         <v>38</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -2117,7 +2116,7 @@
         <v>35</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X14" s="1">
         <v>7.17</v>
@@ -2125,7 +2124,7 @@
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -2191,7 +2190,7 @@
         <v>41</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X15" s="1">
         <v>7.17</v>
@@ -2199,7 +2198,7 @@
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -2265,7 +2264,7 @@
         <v>41</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X16" s="1">
         <v>7.17</v>
@@ -2273,7 +2272,7 @@
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="9">
         <v>0</v>
@@ -2339,7 +2338,7 @@
         <v>34</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X17" s="1">
         <v>6.92</v>
@@ -2347,7 +2346,7 @@
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
@@ -2413,15 +2412,15 @@
         <v>42</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
@@ -2487,7 +2486,7 @@
         <v>45</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X19" s="1">
         <v>8.33</v>
@@ -2495,7 +2494,7 @@
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="9">
         <v>0</v>
@@ -2561,7 +2560,7 @@
         <v>45</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X20" s="1">
         <v>7.17</v>
@@ -2569,7 +2568,7 @@
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -2635,7 +2634,7 @@
         <v>42</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X21" s="1">
         <v>8.5</v>
@@ -2643,7 +2642,7 @@
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
@@ -2709,7 +2708,7 @@
         <v>41</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X22" s="1">
         <v>7.67</v>
@@ -2717,7 +2716,7 @@
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -2783,7 +2782,7 @@
         <v>43</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X23" s="1">
         <v>7.5</v>
@@ -2791,7 +2790,7 @@
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="9">
         <v>0</v>
@@ -2857,7 +2856,7 @@
         <v>42</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X24" s="1">
         <v>8.67</v>
@@ -2865,7 +2864,7 @@
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="9">
         <v>1</v>
@@ -2931,7 +2930,7 @@
         <v>41</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X25" s="1">
         <v>6.25</v>
@@ -2939,7 +2938,7 @@
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="9">
         <v>0</v>
@@ -3005,7 +3004,7 @@
         <v>40</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X26" s="1">
         <v>5.92</v>
@@ -3013,7 +3012,7 @@
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="9">
         <v>0</v>
@@ -3076,10 +3075,10 @@
         <v>39</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X27" s="1">
         <v>7.17</v>
@@ -3087,7 +3086,7 @@
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="9">
         <v>0</v>
@@ -3150,10 +3149,10 @@
         <v>45</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X28" s="1">
         <v>8.67</v>
@@ -3161,7 +3160,7 @@
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="9">
         <v>0</v>
@@ -3227,15 +3226,15 @@
         <v>39</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -3301,7 +3300,7 @@
         <v>40</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X30" s="1">
         <v>8.17</v>
@@ -3309,7 +3308,7 @@
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="9">
         <v>0</v>
@@ -3375,15 +3374,15 @@
         <v>0</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="9">
         <v>0</v>
@@ -3449,7 +3448,7 @@
         <v>42</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X32" s="1">
         <v>6.92</v>
@@ -3457,7 +3456,7 @@
     </row>
     <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -3523,7 +3522,7 @@
         <v>43</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X33" s="1">
         <v>7.5</v>
@@ -3531,7 +3530,7 @@
     </row>
     <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="9">
         <v>0</v>
@@ -3597,7 +3596,7 @@
         <v>42</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X34" s="1">
         <v>7.08</v>
@@ -3605,7 +3604,7 @@
     </row>
     <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -3671,7 +3670,7 @@
         <v>42</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X35" s="1">
         <v>7.42</v>
@@ -3679,7 +3678,7 @@
     </row>
     <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="9">
         <v>0</v>
@@ -3745,15 +3744,15 @@
         <v>40</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="9">
         <v>0</v>
@@ -3819,7 +3818,7 @@
         <v>42</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X37" s="1">
         <v>7.83</v>
@@ -3827,7 +3826,7 @@
     </row>
     <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="9">
         <v>1</v>
@@ -3893,7 +3892,7 @@
         <v>41</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X38" s="1">
         <v>7.04</v>
@@ -3901,7 +3900,7 @@
     </row>
     <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -3967,7 +3966,7 @@
         <v>42</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X39" s="1">
         <v>8.17</v>
@@ -3975,7 +3974,7 @@
     </row>
     <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="9">
         <v>0</v>
@@ -4041,7 +4040,7 @@
         <v>41</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X40" s="1">
         <v>7.17</v>
@@ -4049,7 +4048,7 @@
     </row>
     <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
@@ -4115,7 +4114,7 @@
         <v>36</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X41" s="1">
         <v>6.25</v>
@@ -4123,7 +4122,7 @@
     </row>
     <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="9">
         <v>0</v>
@@ -4186,10 +4185,10 @@
         <v>38</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X42" s="1">
         <v>6.79</v>
@@ -4197,7 +4196,7 @@
     </row>
     <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="9">
         <v>0</v>
@@ -4263,7 +4262,7 @@
         <v>44</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X43" s="1">
         <v>7</v>
@@ -4271,7 +4270,7 @@
     </row>
     <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="9">
         <v>0</v>
@@ -4337,7 +4336,7 @@
         <v>41</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X44" s="1">
         <v>7.17</v>
@@ -4345,7 +4344,7 @@
     </row>
     <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="9">
         <v>0</v>
@@ -4411,7 +4410,7 @@
         <v>40</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X45" s="1">
         <v>8</v>
@@ -4419,7 +4418,7 @@
     </row>
     <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="9">
         <v>0</v>
@@ -4482,10 +4481,10 @@
         <v>43</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X46" s="1">
         <v>8</v>
@@ -4493,7 +4492,7 @@
     </row>
     <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="9">
         <v>0</v>
@@ -4559,7 +4558,7 @@
         <v>42</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X47" s="1">
         <v>7.5</v>
@@ -4567,7 +4566,7 @@
     </row>
     <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="9">
         <v>0</v>
@@ -4633,7 +4632,7 @@
         <v>42</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X48" s="1">
         <v>6.75</v>
@@ -4641,7 +4640,7 @@
     </row>
     <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="9">
         <v>0</v>
@@ -4707,7 +4706,7 @@
         <v>42</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X49" s="1">
         <v>7.67</v>
@@ -4715,7 +4714,7 @@
     </row>
     <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="9">
         <v>0</v>
@@ -4781,7 +4780,7 @@
         <v>40</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X50" s="1">
         <v>7.54</v>
@@ -4789,7 +4788,7 @@
     </row>
     <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="9">
         <v>0</v>
@@ -4855,7 +4854,7 @@
         <v>40</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X51" s="1">
         <v>6.67</v>
@@ -4863,7 +4862,7 @@
     </row>
     <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="9">
         <v>0</v>
@@ -4926,10 +4925,10 @@
         <v>43</v>
       </c>
       <c r="V52" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X52" s="1">
         <v>7.83</v>
@@ -4937,7 +4936,7 @@
     </row>
     <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="9">
         <v>1</v>
@@ -5003,7 +5002,7 @@
         <v>42</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X53" s="1">
         <v>7.83</v>
@@ -5011,7 +5010,7 @@
     </row>
     <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
@@ -5077,7 +5076,7 @@
         <v>42</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X54" s="1">
         <v>7.83</v>
@@ -5085,7 +5084,7 @@
     </row>
     <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
@@ -5151,7 +5150,7 @@
         <v>41</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X55" s="1">
         <v>8</v>
@@ -5159,7 +5158,7 @@
     </row>
     <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="9">
         <v>0</v>
@@ -5225,7 +5224,7 @@
         <v>39</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X56" s="1">
         <v>7.42</v>
@@ -5233,7 +5232,7 @@
     </row>
     <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="9">
         <v>0</v>
@@ -5296,10 +5295,10 @@
         <v>44</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X57" s="1">
         <v>8</v>
@@ -5307,7 +5306,7 @@
     </row>
     <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="9">
         <v>1</v>
@@ -5373,7 +5372,7 @@
         <v>42</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X58" s="1">
         <v>7.17</v>
@@ -5381,7 +5380,7 @@
     </row>
     <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="9">
         <v>0</v>
@@ -5447,7 +5446,7 @@
         <v>44</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X59" s="1">
         <v>6.42</v>
@@ -5455,7 +5454,7 @@
     </row>
     <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="9">
         <v>0</v>
@@ -5521,7 +5520,7 @@
         <v>40</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X60" s="1">
         <v>7.5</v>
@@ -5529,7 +5528,7 @@
     </row>
     <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="9">
         <v>0</v>
@@ -5595,7 +5594,7 @@
         <v>43</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X61" s="1">
         <v>7.38</v>
@@ -5603,7 +5602,7 @@
     </row>
     <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" s="9">
         <v>1</v>
@@ -5669,15 +5668,15 @@
         <v>40</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="9">
         <v>0</v>
@@ -5743,15 +5742,15 @@
         <v>41</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X63" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
@@ -5817,7 +5816,7 @@
         <v>42</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X64" s="1">
         <v>7.04</v>
@@ -5825,7 +5824,7 @@
     </row>
     <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="9">
         <v>0</v>
@@ -5891,7 +5890,7 @@
         <v>41</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X65" s="1">
         <v>6.04</v>
@@ -5899,7 +5898,7 @@
     </row>
     <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="9">
         <v>0</v>
@@ -5967,13 +5966,13 @@
       <c r="W66" s="2">
         <v>0</v>
       </c>
-      <c r="X66" s="1" t="s">
-        <v>18</v>
+      <c r="X66" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="9">
         <v>0</v>
@@ -6039,7 +6038,7 @@
         <v>40</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X67" s="1">
         <v>7.58</v>
@@ -6047,7 +6046,7 @@
     </row>
     <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="9">
         <v>0</v>
@@ -6113,7 +6112,7 @@
         <v>41</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X68" s="1">
         <v>7.67</v>
@@ -6121,7 +6120,7 @@
     </row>
     <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="9">
         <v>0</v>
@@ -6187,7 +6186,7 @@
         <v>40</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X69" s="1">
         <v>9</v>
@@ -6195,7 +6194,7 @@
     </row>
     <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="9">
         <v>0</v>
@@ -6261,7 +6260,7 @@
         <v>42</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X70" s="1">
         <v>7.67</v>
@@ -6269,7 +6268,7 @@
     </row>
     <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="9">
         <v>0</v>
@@ -6335,7 +6334,7 @@
         <v>42</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X71" s="1">
         <v>8</v>
@@ -6343,7 +6342,7 @@
     </row>
     <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="9">
         <v>0</v>
@@ -6409,7 +6408,7 @@
         <v>37</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X72" s="1">
         <v>6.67</v>
@@ -6417,7 +6416,7 @@
     </row>
     <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="9">
         <v>0</v>
@@ -6480,10 +6479,10 @@
         <v>47</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X73" s="1">
         <v>8</v>
@@ -6491,7 +6490,7 @@
     </row>
     <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="9">
         <v>1</v>
@@ -6557,7 +6556,7 @@
         <v>42</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X74" s="1">
         <v>7.58</v>
@@ -6565,7 +6564,7 @@
     </row>
     <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="9">
         <v>0</v>
@@ -6631,7 +6630,7 @@
         <v>43</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X75" s="1">
         <v>7.67</v>
@@ -6639,7 +6638,7 @@
     </row>
     <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="9">
         <v>0</v>
@@ -6705,7 +6704,7 @@
         <v>41</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X76" s="1">
         <v>7.33</v>
@@ -6713,7 +6712,7 @@
     </row>
     <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B77" s="9">
         <v>1</v>
@@ -6779,7 +6778,7 @@
         <v>43</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X77" s="1">
         <v>7.83</v>
@@ -6787,7 +6786,7 @@
     </row>
     <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="9">
         <v>0</v>
@@ -6853,15 +6852,15 @@
         <v>44</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X78" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X78" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="9">
         <v>0</v>
@@ -6927,7 +6926,7 @@
         <v>41</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X79" s="1">
         <v>7.5</v>
@@ -6935,7 +6934,7 @@
     </row>
     <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="9">
         <v>0</v>
@@ -7001,15 +7000,15 @@
         <v>42</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X80" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X80" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="9">
         <v>0</v>
@@ -7075,7 +7074,7 @@
         <v>43</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X81" s="1">
         <v>8</v>
@@ -7083,7 +7082,7 @@
     </row>
     <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B82" s="9">
         <v>1</v>
@@ -7149,7 +7148,7 @@
         <v>44</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X82" s="1">
         <v>8.5</v>
@@ -7157,7 +7156,7 @@
     </row>
     <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="9">
         <v>0</v>
@@ -7223,7 +7222,7 @@
         <v>42</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X83" s="1">
         <v>7.17</v>
@@ -7231,7 +7230,7 @@
     </row>
     <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B84" s="9">
         <v>1</v>
@@ -7297,7 +7296,7 @@
         <v>41</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X84" s="1">
         <v>8.33</v>
@@ -7305,7 +7304,7 @@
     </row>
     <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="9">
         <v>0</v>
@@ -7371,7 +7370,7 @@
         <v>41</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X85" s="1">
         <v>8.17</v>
@@ -7379,7 +7378,7 @@
     </row>
     <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" s="9">
         <v>1</v>
@@ -7445,7 +7444,7 @@
         <v>41</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X86" s="1">
         <v>7.83</v>
@@ -7453,7 +7452,7 @@
     </row>
     <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="9">
         <v>0</v>
@@ -7519,7 +7518,7 @@
         <v>43</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X87" s="1">
         <v>7.17</v>
@@ -7527,7 +7526,7 @@
     </row>
     <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B88" s="9">
         <v>1</v>
@@ -7593,7 +7592,7 @@
         <v>40</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X88" s="1">
         <v>8.83</v>
@@ -7601,7 +7600,7 @@
     </row>
     <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="9">
         <v>1</v>
@@ -7667,7 +7666,7 @@
         <v>42</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X89" s="1">
         <v>7.17</v>
@@ -7675,7 +7674,7 @@
     </row>
     <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="9">
         <v>0</v>
@@ -7741,7 +7740,7 @@
         <v>41</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X90" s="1">
         <v>6.83</v>
@@ -7749,7 +7748,7 @@
     </row>
     <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B91" s="9">
         <v>1</v>
@@ -7815,7 +7814,7 @@
         <v>42</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X91" s="1">
         <v>8</v>
@@ -7823,7 +7822,7 @@
     </row>
     <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" s="9">
         <v>0</v>
@@ -7889,15 +7888,15 @@
         <v>42</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X92" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X92" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93" s="9">
         <v>0</v>
@@ -7963,7 +7962,7 @@
         <v>42</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X93" s="1">
         <v>8.17</v>
@@ -7971,7 +7970,7 @@
     </row>
     <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" s="9">
         <v>1</v>
@@ -8037,7 +8036,7 @@
         <v>45</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X94" s="1">
         <v>7.5</v>
@@ -8045,7 +8044,7 @@
     </row>
     <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="9">
         <v>0</v>
@@ -8111,7 +8110,7 @@
         <v>45</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X95" s="1">
         <v>7.67</v>
@@ -8119,7 +8118,7 @@
     </row>
     <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="9">
         <v>0</v>
@@ -8182,10 +8181,10 @@
         <v>44</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X96" s="1">
         <v>7.33</v>
@@ -8193,7 +8192,7 @@
     </row>
     <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="9">
         <v>0</v>
@@ -8256,10 +8255,10 @@
         <v>40</v>
       </c>
       <c r="V97" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X97" s="1">
         <v>7.83</v>
@@ -8267,7 +8266,7 @@
     </row>
     <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="9">
         <v>0</v>
@@ -8333,7 +8332,7 @@
         <v>42</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X98" s="1">
         <v>7.5</v>
@@ -8341,7 +8340,7 @@
     </row>
     <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="9">
         <v>0</v>
@@ -8407,7 +8406,7 @@
         <v>40</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X99" s="1">
         <v>7.58</v>
@@ -8415,7 +8414,7 @@
     </row>
     <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="9">
         <v>0</v>
@@ -8481,7 +8480,7 @@
         <v>42</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X100" s="1">
         <v>7</v>
@@ -8489,7 +8488,7 @@
     </row>
     <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="9">
         <v>0</v>
@@ -8555,7 +8554,7 @@
         <v>42</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X101" s="1">
         <v>7.67</v>
@@ -8563,7 +8562,7 @@
     </row>
     <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="9">
         <v>0</v>
@@ -8629,7 +8628,7 @@
         <v>36</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X102" s="1">
         <v>6.67</v>
@@ -8637,7 +8636,7 @@
     </row>
     <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="9">
         <v>0</v>
@@ -8703,7 +8702,7 @@
         <v>34</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X103" s="1">
         <v>7.42</v>
@@ -8711,7 +8710,7 @@
     </row>
     <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B104" s="9">
         <v>1</v>
@@ -8777,15 +8776,15 @@
         <v>41</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X104" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X104" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B105" s="9">
         <v>1</v>
@@ -8851,7 +8850,7 @@
         <v>43</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X105" s="1">
         <v>8.83</v>
@@ -8859,7 +8858,7 @@
     </row>
     <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="9">
         <v>0</v>
@@ -8925,7 +8924,7 @@
         <v>45</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X106" s="1">
         <v>7.08</v>
@@ -8933,7 +8932,7 @@
     </row>
     <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="9">
         <v>0</v>
@@ -8999,7 +8998,7 @@
         <v>45</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X107" s="1">
         <v>8</v>
@@ -9007,7 +9006,7 @@
     </row>
     <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" s="9">
         <v>0</v>
@@ -9073,7 +9072,7 @@
         <v>41</v>
       </c>
       <c r="W108" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X108" s="1">
         <v>7.67</v>
@@ -9081,7 +9080,7 @@
     </row>
     <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="9">
         <v>0</v>
@@ -9147,15 +9146,15 @@
         <v>42</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X109" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X109" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B110" s="9">
         <v>1</v>
@@ -9218,10 +9217,10 @@
         <v>39</v>
       </c>
       <c r="V110" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X110" s="1">
         <v>6.42</v>
@@ -9229,7 +9228,7 @@
     </row>
     <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111" s="9">
         <v>0</v>
@@ -9295,7 +9294,7 @@
         <v>41</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X111" s="1">
         <v>8.67</v>
@@ -9303,7 +9302,7 @@
     </row>
     <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="9">
         <v>0</v>
@@ -9369,7 +9368,7 @@
         <v>42</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X112" s="1">
         <v>6.67</v>
@@ -9377,7 +9376,7 @@
     </row>
     <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" s="9">
         <v>0</v>
@@ -9443,15 +9442,15 @@
         <v>42</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X113" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X113" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B114" s="9">
         <v>1</v>
@@ -9517,7 +9516,7 @@
         <v>42</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X114" s="1">
         <v>8.33</v>
@@ -9525,7 +9524,7 @@
     </row>
     <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="9">
         <v>0</v>
@@ -9591,15 +9590,15 @@
         <v>38</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X115" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X115" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B116" s="9">
         <v>0</v>
@@ -9665,7 +9664,7 @@
         <v>41</v>
       </c>
       <c r="W116" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X116" s="1">
         <v>6</v>
@@ -9673,7 +9672,7 @@
     </row>
     <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117" s="9">
         <v>0</v>
@@ -9739,7 +9738,7 @@
         <v>43</v>
       </c>
       <c r="W117" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X117" s="1">
         <v>9.67</v>
@@ -9747,7 +9746,7 @@
     </row>
     <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" s="9">
         <v>0</v>
@@ -9813,7 +9812,7 @@
         <v>42</v>
       </c>
       <c r="W118" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X118" s="1">
         <v>8.17</v>
@@ -9821,7 +9820,7 @@
     </row>
     <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119" s="9">
         <v>0</v>
@@ -9884,10 +9883,10 @@
         <v>40</v>
       </c>
       <c r="V119" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W119" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X119" s="1">
         <v>6.75</v>
@@ -9895,7 +9894,7 @@
     </row>
     <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B120" s="9">
         <v>1</v>
@@ -9958,10 +9957,10 @@
         <v>39</v>
       </c>
       <c r="V120" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W120" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X120" s="1">
         <v>7.38</v>
@@ -9969,7 +9968,7 @@
     </row>
     <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B121" s="9">
         <v>0</v>
@@ -10035,7 +10034,7 @@
         <v>41</v>
       </c>
       <c r="W121" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X121" s="1">
         <v>7.33</v>
@@ -10043,7 +10042,7 @@
     </row>
     <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B122" s="9">
         <v>1</v>
@@ -10109,15 +10108,15 @@
         <v>36</v>
       </c>
       <c r="W122" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X122" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X122" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B123" s="9">
         <v>0</v>
@@ -10183,7 +10182,7 @@
         <v>36</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X123" s="1">
         <v>7.83</v>
@@ -10191,7 +10190,7 @@
     </row>
     <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124" s="9">
         <v>0</v>
@@ -10257,15 +10256,15 @@
         <v>35</v>
       </c>
       <c r="W124" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X124" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X124" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125" s="9">
         <v>0</v>
@@ -10331,7 +10330,7 @@
         <v>35</v>
       </c>
       <c r="W125" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X125" s="1">
         <v>6.33</v>
@@ -10339,7 +10338,7 @@
     </row>
     <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B126" s="9">
         <v>1</v>
@@ -10405,7 +10404,7 @@
         <v>41</v>
       </c>
       <c r="W126" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X126" s="1">
         <v>7.83</v>
@@ -10413,7 +10412,7 @@
     </row>
     <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B127" s="9">
         <v>1</v>
@@ -10479,7 +10478,7 @@
         <v>46</v>
       </c>
       <c r="W127" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X127" s="1">
         <v>7.67</v>
@@ -10487,7 +10486,7 @@
     </row>
     <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B128" s="9">
         <v>1</v>
@@ -10553,7 +10552,7 @@
         <v>43</v>
       </c>
       <c r="W128" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X128" s="1">
         <v>7.17</v>
@@ -10561,7 +10560,7 @@
     </row>
     <row r="129" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B129" s="9">
         <v>0</v>
@@ -10627,15 +10626,15 @@
         <v>34</v>
       </c>
       <c r="W129" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X129" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X129" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130" s="9">
         <v>0</v>
@@ -10698,10 +10697,10 @@
         <v>44</v>
       </c>
       <c r="V130" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W130" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X130" s="1">
         <v>7.17</v>
@@ -10709,7 +10708,7 @@
     </row>
     <row r="131" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131" s="9">
         <v>0</v>
@@ -10775,15 +10774,15 @@
         <v>34</v>
       </c>
       <c r="W131" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X131" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X131" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B132" s="9">
         <v>0</v>
@@ -10849,7 +10848,7 @@
         <v>41</v>
       </c>
       <c r="W132" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X132" s="1">
         <v>7.5</v>
@@ -10857,7 +10856,7 @@
     </row>
     <row r="133" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B133" s="9">
         <v>0</v>
@@ -10923,7 +10922,7 @@
         <v>42</v>
       </c>
       <c r="W133" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X133" s="1">
         <v>7</v>
@@ -10931,7 +10930,7 @@
     </row>
     <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B134" s="9">
         <v>0</v>
@@ -10976,7 +10975,7 @@
         <v>23</v>
       </c>
       <c r="P134" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q134" s="12">
         <v>9</v>
@@ -10997,15 +10996,15 @@
         <v>40</v>
       </c>
       <c r="W134" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B135" s="9">
         <v>0</v>
@@ -11071,15 +11070,15 @@
         <v>41</v>
       </c>
       <c r="W135" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X135" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X135" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B136" s="9">
         <v>0</v>
@@ -11145,7 +11144,7 @@
         <v>36</v>
       </c>
       <c r="W136" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X136" s="1">
         <v>7.42</v>
@@ -11153,7 +11152,7 @@
     </row>
     <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B137" s="9">
         <v>1</v>
@@ -11216,10 +11215,10 @@
         <v>39</v>
       </c>
       <c r="V137" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W137" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X137" s="1">
         <v>7.42</v>
@@ -11227,7 +11226,7 @@
     </row>
     <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B138" s="9">
         <v>0</v>
@@ -11293,7 +11292,7 @@
         <v>42</v>
       </c>
       <c r="W138" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X138" s="1">
         <v>6</v>
@@ -11301,7 +11300,7 @@
     </row>
     <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B139" s="9">
         <v>0</v>
@@ -11367,7 +11366,7 @@
         <v>35</v>
       </c>
       <c r="W139" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X139" s="1">
         <v>5.96</v>
@@ -11375,7 +11374,7 @@
     </row>
     <row r="140" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B140" s="9">
         <v>1</v>
@@ -11441,7 +11440,7 @@
         <v>46</v>
       </c>
       <c r="W140" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X140" s="1">
         <v>8.17</v>
@@ -11449,7 +11448,7 @@
     </row>
     <row r="141" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" s="9">
         <v>0</v>
@@ -11515,7 +11514,7 @@
         <v>35</v>
       </c>
       <c r="W141" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X141" s="1">
         <v>6.21</v>
@@ -11523,7 +11522,7 @@
     </row>
     <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="9">
         <v>0</v>
@@ -11589,7 +11588,7 @@
         <v>42</v>
       </c>
       <c r="W142" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X142" s="1">
         <v>7.13</v>
@@ -11597,7 +11596,7 @@
     </row>
     <row r="143" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="9">
         <v>0</v>
@@ -11663,7 +11662,7 @@
         <v>40</v>
       </c>
       <c r="W143" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X143" s="1">
         <v>6.17</v>
@@ -11671,7 +11670,7 @@
     </row>
     <row r="144" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B144" s="9">
         <v>0</v>
@@ -11737,7 +11736,7 @@
         <v>44</v>
       </c>
       <c r="W144" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X144" s="1">
         <v>8.17</v>
@@ -11745,7 +11744,7 @@
     </row>
     <row r="145" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="9">
         <v>0</v>
@@ -11808,10 +11807,10 @@
         <v>40</v>
       </c>
       <c r="V145" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W145" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X145" s="1">
         <v>6.38</v>
@@ -11819,7 +11818,7 @@
     </row>
     <row r="146" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B146" s="9">
         <v>0</v>
@@ -11882,10 +11881,10 @@
         <v>41</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W146" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X146" s="1">
         <v>6.67</v>
@@ -11893,7 +11892,7 @@
     </row>
     <row r="147" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147" s="9">
         <v>0</v>
@@ -11956,10 +11955,10 @@
         <v>42</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W147" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X147" s="1">
         <v>6.71</v>
@@ -11967,7 +11966,7 @@
     </row>
     <row r="148" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B148" s="9">
         <v>0</v>
@@ -12033,15 +12032,15 @@
         <v>37</v>
       </c>
       <c r="W148" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X148" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X148" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B149" s="9">
         <v>0</v>
@@ -12107,7 +12106,7 @@
         <v>37</v>
       </c>
       <c r="W149" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X149" s="1">
         <v>6.71</v>
@@ -12115,7 +12114,7 @@
     </row>
     <row r="150" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B150" s="9">
         <v>1</v>
@@ -12181,15 +12180,15 @@
         <v>32</v>
       </c>
       <c r="W150" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X150" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X150" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" s="9">
         <v>0</v>
@@ -12252,10 +12251,10 @@
         <v>43</v>
       </c>
       <c r="V151" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W151" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X151" s="1">
         <v>8</v>
@@ -12263,7 +12262,7 @@
     </row>
     <row r="152" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B152" s="9">
         <v>1</v>
@@ -12326,10 +12325,10 @@
         <v>43</v>
       </c>
       <c r="V152" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W152" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X152" s="1">
         <v>8.5</v>
@@ -12337,7 +12336,7 @@
     </row>
     <row r="153" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B153" s="9">
         <v>1</v>
@@ -12400,10 +12399,10 @@
         <v>42</v>
       </c>
       <c r="V153" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W153" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X153" s="1">
         <v>8.5</v>
@@ -12411,7 +12410,7 @@
     </row>
     <row r="154" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B154" s="9">
         <v>0</v>
@@ -12477,7 +12476,7 @@
         <v>39</v>
       </c>
       <c r="W154" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X154" s="1">
         <v>7.17</v>
@@ -12485,7 +12484,7 @@
     </row>
     <row r="155" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B155" s="9">
         <v>0</v>
@@ -12551,7 +12550,7 @@
         <v>44</v>
       </c>
       <c r="W155" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X155" s="1">
         <v>9.17</v>
@@ -12559,7 +12558,7 @@
     </row>
     <row r="156" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B156" s="9">
         <v>0</v>
@@ -12625,7 +12624,7 @@
         <v>40</v>
       </c>
       <c r="W156" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X156" s="1">
         <v>7</v>
@@ -12633,7 +12632,7 @@
     </row>
     <row r="157" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B157" s="9">
         <v>0</v>
@@ -12699,15 +12698,15 @@
         <v>37</v>
       </c>
       <c r="W157" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X157" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X157" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B158" s="9">
         <v>0</v>
@@ -12773,15 +12772,15 @@
         <v>40</v>
       </c>
       <c r="W158" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X158" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X158" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B159" s="9">
         <v>0</v>
@@ -12847,7 +12846,7 @@
         <v>36</v>
       </c>
       <c r="W159" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X159" s="1">
         <v>6.21</v>
@@ -12855,7 +12854,7 @@
     </row>
     <row r="160" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B160" s="9">
         <v>0</v>
@@ -12921,15 +12920,15 @@
         <v>25</v>
       </c>
       <c r="W160" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X160" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="X160" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B161" s="9">
         <v>0</v>
@@ -12995,7 +12994,7 @@
         <v>37</v>
       </c>
       <c r="W161" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X161" s="1">
         <v>5.42</v>
@@ -13003,7 +13002,7 @@
     </row>
     <row r="162" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B162" s="9">
         <v>0</v>
@@ -13069,15 +13068,15 @@
         <v>35</v>
       </c>
       <c r="W162" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X162" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X162" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B163" s="9">
         <v>0</v>
@@ -13143,7 +13142,7 @@
         <v>38</v>
       </c>
       <c r="W163" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X163" s="1">
         <v>6.29</v>
@@ -13151,7 +13150,7 @@
     </row>
     <row r="164" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B164" s="9">
         <v>0</v>
@@ -13217,15 +13216,15 @@
         <v>45</v>
       </c>
       <c r="W164" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X164" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X164" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B165" s="9">
         <v>1</v>
@@ -13291,15 +13290,15 @@
         <v>37</v>
       </c>
       <c r="W165" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X165" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X165" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B166" s="9">
         <v>0</v>
@@ -13365,21 +13364,21 @@
         <v>25</v>
       </c>
       <c r="W166" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X166" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X166" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="9">
+        <v>0</v>
+      </c>
+      <c r="C167" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="B167" s="9">
-        <v>0</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="D167" s="10">
         <v>34</v>
@@ -13439,7 +13438,7 @@
         <v>30</v>
       </c>
       <c r="W167" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X167" s="1">
         <v>5.21</v>
@@ -13447,13 +13446,13 @@
     </row>
     <row r="168" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B168" s="9">
         <v>1</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D168" s="7">
         <v>0</v>
@@ -13513,21 +13512,21 @@
         <v>38</v>
       </c>
       <c r="W168" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X168" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X168" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169" s="9">
         <v>1</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D169" s="6">
         <v>20</v>
@@ -13587,10 +13586,10 @@
         <v>35</v>
       </c>
       <c r="W169" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X169" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="X169" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Cleaned-Data/2018-Passouts/Sem-5_2018_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2018-Passouts/Sem-5_2018_Passout_cleaned.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$AF$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$X$169</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="203">
   <si>
     <t>MP-TW</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>P*</t>
-  </si>
-  <si>
-    <t>49  6.21</t>
   </si>
   <si>
     <t>AB</t>
@@ -1053,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X170" sqref="X170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1088,13 +1085,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1151,18 +1148,18 @@
         <v>17</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -1228,7 +1225,7 @@
         <v>43</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X2" s="1">
         <v>7</v>
@@ -1236,7 +1233,7 @@
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -1302,7 +1299,7 @@
         <v>42</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X3" s="1">
         <v>7.29</v>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1376,7 +1373,7 @@
         <v>40</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X4" s="1">
         <v>8.67</v>
@@ -1384,7 +1381,7 @@
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -1450,7 +1447,7 @@
         <v>42</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X5" s="1">
         <v>7.08</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1524,7 +1521,7 @@
         <v>43</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X6" s="1">
         <v>7.83</v>
@@ -1532,7 +1529,7 @@
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1598,7 +1595,7 @@
         <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X7" s="1">
         <v>7.83</v>
@@ -1606,7 +1603,7 @@
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -1672,7 +1669,7 @@
         <v>43</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X8" s="1">
         <v>7.5</v>
@@ -1680,7 +1677,7 @@
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -1746,7 +1743,7 @@
         <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X9" s="1">
         <v>7.5</v>
@@ -1754,7 +1751,7 @@
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -1820,7 +1817,7 @@
         <v>41</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X10" s="1">
         <v>7.33</v>
@@ -1828,7 +1825,7 @@
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -1894,7 +1891,7 @@
         <v>41</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
@@ -1902,7 +1899,7 @@
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -1968,7 +1965,7 @@
         <v>40</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X12" s="1">
         <v>9</v>
@@ -1976,7 +1973,7 @@
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -2042,7 +2039,7 @@
         <v>38</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -2116,7 +2113,7 @@
         <v>35</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X14" s="1">
         <v>7.17</v>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -2190,7 +2187,7 @@
         <v>41</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X15" s="1">
         <v>7.17</v>
@@ -2198,7 +2195,7 @@
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -2264,7 +2261,7 @@
         <v>41</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X16" s="1">
         <v>7.17</v>
@@ -2272,7 +2269,7 @@
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="9">
         <v>0</v>
@@ -2338,7 +2335,7 @@
         <v>34</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X17" s="1">
         <v>6.92</v>
@@ -2346,7 +2343,7 @@
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
@@ -2412,7 +2409,7 @@
         <v>42</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X18" s="1">
         <v>0</v>
@@ -2420,7 +2417,7 @@
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
@@ -2486,7 +2483,7 @@
         <v>45</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X19" s="1">
         <v>8.33</v>
@@ -2494,7 +2491,7 @@
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="9">
         <v>0</v>
@@ -2560,7 +2557,7 @@
         <v>45</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X20" s="1">
         <v>7.17</v>
@@ -2568,7 +2565,7 @@
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -2634,7 +2631,7 @@
         <v>42</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X21" s="1">
         <v>8.5</v>
@@ -2642,7 +2639,7 @@
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
@@ -2708,7 +2705,7 @@
         <v>41</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X22" s="1">
         <v>7.67</v>
@@ -2716,7 +2713,7 @@
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -2782,7 +2779,7 @@
         <v>43</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X23" s="1">
         <v>7.5</v>
@@ -2790,7 +2787,7 @@
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="9">
         <v>0</v>
@@ -2856,7 +2853,7 @@
         <v>42</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X24" s="1">
         <v>8.67</v>
@@ -2864,7 +2861,7 @@
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="9">
         <v>1</v>
@@ -2938,7 +2935,7 @@
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="9">
         <v>0</v>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="9">
         <v>0</v>
@@ -3075,10 +3072,10 @@
         <v>39</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X27" s="1">
         <v>7.17</v>
@@ -3086,7 +3083,7 @@
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="9">
         <v>0</v>
@@ -3149,10 +3146,10 @@
         <v>45</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X28" s="1">
         <v>8.67</v>
@@ -3160,7 +3157,7 @@
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="9">
         <v>0</v>
@@ -3226,7 +3223,7 @@
         <v>39</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -3234,7 +3231,7 @@
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -3300,7 +3297,7 @@
         <v>40</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X30" s="1">
         <v>8.17</v>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="9">
         <v>0</v>
@@ -3374,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X31" s="1">
         <v>0</v>
@@ -3382,7 +3379,7 @@
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="9">
         <v>0</v>
@@ -3448,7 +3445,7 @@
         <v>42</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X32" s="1">
         <v>6.92</v>
@@ -3456,7 +3453,7 @@
     </row>
     <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -3522,7 +3519,7 @@
         <v>43</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X33" s="1">
         <v>7.5</v>
@@ -3530,7 +3527,7 @@
     </row>
     <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="9">
         <v>0</v>
@@ -3596,7 +3593,7 @@
         <v>42</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X34" s="1">
         <v>7.08</v>
@@ -3604,7 +3601,7 @@
     </row>
     <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -3670,7 +3667,7 @@
         <v>42</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X35" s="1">
         <v>7.42</v>
@@ -3678,7 +3675,7 @@
     </row>
     <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="9">
         <v>0</v>
@@ -3744,7 +3741,7 @@
         <v>40</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X36" s="1">
         <v>0</v>
@@ -3752,7 +3749,7 @@
     </row>
     <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="9">
         <v>0</v>
@@ -3818,7 +3815,7 @@
         <v>42</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X37" s="1">
         <v>7.83</v>
@@ -3826,7 +3823,7 @@
     </row>
     <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="9">
         <v>1</v>
@@ -3892,7 +3889,7 @@
         <v>41</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X38" s="1">
         <v>7.04</v>
@@ -3900,7 +3897,7 @@
     </row>
     <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -3966,7 +3963,7 @@
         <v>42</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X39" s="1">
         <v>8.17</v>
@@ -3974,7 +3971,7 @@
     </row>
     <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="9">
         <v>0</v>
@@ -4040,7 +4037,7 @@
         <v>41</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X40" s="1">
         <v>7.17</v>
@@ -4048,7 +4045,7 @@
     </row>
     <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
@@ -4114,7 +4111,7 @@
         <v>36</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X41" s="1">
         <v>6.25</v>
@@ -4122,7 +4119,7 @@
     </row>
     <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="9">
         <v>0</v>
@@ -4185,10 +4182,10 @@
         <v>38</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X42" s="1">
         <v>6.79</v>
@@ -4196,7 +4193,7 @@
     </row>
     <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="9">
         <v>0</v>
@@ -4262,7 +4259,7 @@
         <v>44</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X43" s="1">
         <v>7</v>
@@ -4270,7 +4267,7 @@
     </row>
     <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="9">
         <v>0</v>
@@ -4336,7 +4333,7 @@
         <v>41</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X44" s="1">
         <v>7.17</v>
@@ -4344,7 +4341,7 @@
     </row>
     <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="9">
         <v>0</v>
@@ -4410,7 +4407,7 @@
         <v>40</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X45" s="1">
         <v>8</v>
@@ -4418,7 +4415,7 @@
     </row>
     <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="9">
         <v>0</v>
@@ -4481,10 +4478,10 @@
         <v>43</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X46" s="1">
         <v>8</v>
@@ -4492,7 +4489,7 @@
     </row>
     <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="9">
         <v>0</v>
@@ -4558,7 +4555,7 @@
         <v>42</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X47" s="1">
         <v>7.5</v>
@@ -4566,7 +4563,7 @@
     </row>
     <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="9">
         <v>0</v>
@@ -4632,7 +4629,7 @@
         <v>42</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X48" s="1">
         <v>6.75</v>
@@ -4640,7 +4637,7 @@
     </row>
     <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="9">
         <v>0</v>
@@ -4706,7 +4703,7 @@
         <v>42</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X49" s="1">
         <v>7.67</v>
@@ -4714,7 +4711,7 @@
     </row>
     <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="9">
         <v>0</v>
@@ -4780,7 +4777,7 @@
         <v>40</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X50" s="1">
         <v>7.54</v>
@@ -4788,7 +4785,7 @@
     </row>
     <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="9">
         <v>0</v>
@@ -4854,7 +4851,7 @@
         <v>40</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X51" s="1">
         <v>6.67</v>
@@ -4862,7 +4859,7 @@
     </row>
     <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="9">
         <v>0</v>
@@ -4925,10 +4922,10 @@
         <v>43</v>
       </c>
       <c r="V52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X52" s="1">
         <v>7.83</v>
@@ -4936,7 +4933,7 @@
     </row>
     <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" s="9">
         <v>1</v>
@@ -5002,7 +4999,7 @@
         <v>42</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X53" s="1">
         <v>7.83</v>
@@ -5010,7 +5007,7 @@
     </row>
     <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
@@ -5076,7 +5073,7 @@
         <v>42</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X54" s="1">
         <v>7.83</v>
@@ -5084,7 +5081,7 @@
     </row>
     <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
@@ -5150,7 +5147,7 @@
         <v>41</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X55" s="1">
         <v>8</v>
@@ -5158,7 +5155,7 @@
     </row>
     <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="9">
         <v>0</v>
@@ -5224,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X56" s="1">
         <v>7.42</v>
@@ -5232,7 +5229,7 @@
     </row>
     <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="9">
         <v>0</v>
@@ -5295,10 +5292,10 @@
         <v>44</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X57" s="1">
         <v>8</v>
@@ -5306,7 +5303,7 @@
     </row>
     <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="9">
         <v>1</v>
@@ -5372,7 +5369,7 @@
         <v>42</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X58" s="1">
         <v>7.17</v>
@@ -5380,7 +5377,7 @@
     </row>
     <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="9">
         <v>0</v>
@@ -5446,7 +5443,7 @@
         <v>44</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X59" s="1">
         <v>6.42</v>
@@ -5454,7 +5451,7 @@
     </row>
     <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="9">
         <v>0</v>
@@ -5520,7 +5517,7 @@
         <v>40</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X60" s="1">
         <v>7.5</v>
@@ -5528,7 +5525,7 @@
     </row>
     <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="9">
         <v>0</v>
@@ -5594,7 +5591,7 @@
         <v>43</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X61" s="1">
         <v>7.38</v>
@@ -5602,7 +5599,7 @@
     </row>
     <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="9">
         <v>1</v>
@@ -5668,7 +5665,7 @@
         <v>40</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X62" s="1">
         <v>0</v>
@@ -5676,7 +5673,7 @@
     </row>
     <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="9">
         <v>0</v>
@@ -5742,7 +5739,7 @@
         <v>41</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X63" s="1">
         <v>0</v>
@@ -5750,7 +5747,7 @@
     </row>
     <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
@@ -5816,7 +5813,7 @@
         <v>42</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X64" s="1">
         <v>7.04</v>
@@ -5824,7 +5821,7 @@
     </row>
     <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="9">
         <v>0</v>
@@ -5890,7 +5887,7 @@
         <v>41</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X65" s="1">
         <v>6.04</v>
@@ -5898,7 +5895,7 @@
     </row>
     <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="9">
         <v>0</v>
@@ -5972,7 +5969,7 @@
     </row>
     <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="9">
         <v>0</v>
@@ -6038,7 +6035,7 @@
         <v>40</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X67" s="1">
         <v>7.58</v>
@@ -6046,7 +6043,7 @@
     </row>
     <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="9">
         <v>0</v>
@@ -6112,7 +6109,7 @@
         <v>41</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X68" s="1">
         <v>7.67</v>
@@ -6120,7 +6117,7 @@
     </row>
     <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="9">
         <v>0</v>
@@ -6186,7 +6183,7 @@
         <v>40</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X69" s="1">
         <v>9</v>
@@ -6194,7 +6191,7 @@
     </row>
     <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="9">
         <v>0</v>
@@ -6260,7 +6257,7 @@
         <v>42</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X70" s="1">
         <v>7.67</v>
@@ -6268,7 +6265,7 @@
     </row>
     <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="9">
         <v>0</v>
@@ -6334,7 +6331,7 @@
         <v>42</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X71" s="1">
         <v>8</v>
@@ -6342,7 +6339,7 @@
     </row>
     <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="9">
         <v>0</v>
@@ -6408,7 +6405,7 @@
         <v>37</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X72" s="1">
         <v>6.67</v>
@@ -6416,7 +6413,7 @@
     </row>
     <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="9">
         <v>0</v>
@@ -6479,10 +6476,10 @@
         <v>47</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X73" s="1">
         <v>8</v>
@@ -6490,7 +6487,7 @@
     </row>
     <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" s="9">
         <v>1</v>
@@ -6556,7 +6553,7 @@
         <v>42</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X74" s="1">
         <v>7.58</v>
@@ -6564,7 +6561,7 @@
     </row>
     <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="9">
         <v>0</v>
@@ -6630,7 +6627,7 @@
         <v>43</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X75" s="1">
         <v>7.67</v>
@@ -6638,7 +6635,7 @@
     </row>
     <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="9">
         <v>0</v>
@@ -6704,7 +6701,7 @@
         <v>41</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X76" s="1">
         <v>7.33</v>
@@ -6712,7 +6709,7 @@
     </row>
     <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="9">
         <v>1</v>
@@ -6778,7 +6775,7 @@
         <v>43</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X77" s="1">
         <v>7.83</v>
@@ -6786,7 +6783,7 @@
     </row>
     <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="9">
         <v>0</v>
@@ -6852,7 +6849,7 @@
         <v>44</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X78" s="1">
         <v>0</v>
@@ -6860,7 +6857,7 @@
     </row>
     <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="9">
         <v>0</v>
@@ -6926,7 +6923,7 @@
         <v>41</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X79" s="1">
         <v>7.5</v>
@@ -6934,7 +6931,7 @@
     </row>
     <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="9">
         <v>0</v>
@@ -7000,7 +6997,7 @@
         <v>42</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X80" s="1">
         <v>0</v>
@@ -7008,7 +7005,7 @@
     </row>
     <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="9">
         <v>0</v>
@@ -7074,7 +7071,7 @@
         <v>43</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X81" s="1">
         <v>8</v>
@@ -7082,7 +7079,7 @@
     </row>
     <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B82" s="9">
         <v>1</v>
@@ -7148,7 +7145,7 @@
         <v>44</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X82" s="1">
         <v>8.5</v>
@@ -7156,7 +7153,7 @@
     </row>
     <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="9">
         <v>0</v>
@@ -7222,7 +7219,7 @@
         <v>42</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X83" s="1">
         <v>7.17</v>
@@ -7230,7 +7227,7 @@
     </row>
     <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B84" s="9">
         <v>1</v>
@@ -7296,7 +7293,7 @@
         <v>41</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X84" s="1">
         <v>8.33</v>
@@ -7304,7 +7301,7 @@
     </row>
     <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="9">
         <v>0</v>
@@ -7370,7 +7367,7 @@
         <v>41</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X85" s="1">
         <v>8.17</v>
@@ -7378,7 +7375,7 @@
     </row>
     <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" s="9">
         <v>1</v>
@@ -7444,7 +7441,7 @@
         <v>41</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X86" s="1">
         <v>7.83</v>
@@ -7452,7 +7449,7 @@
     </row>
     <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="9">
         <v>0</v>
@@ -7518,7 +7515,7 @@
         <v>43</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X87" s="1">
         <v>7.17</v>
@@ -7526,7 +7523,7 @@
     </row>
     <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88" s="9">
         <v>1</v>
@@ -7592,7 +7589,7 @@
         <v>40</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X88" s="1">
         <v>8.83</v>
@@ -7600,7 +7597,7 @@
     </row>
     <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B89" s="9">
         <v>1</v>
@@ -7666,7 +7663,7 @@
         <v>42</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X89" s="1">
         <v>7.17</v>
@@ -7674,7 +7671,7 @@
     </row>
     <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="9">
         <v>0</v>
@@ -7740,7 +7737,7 @@
         <v>41</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X90" s="1">
         <v>6.83</v>
@@ -7748,7 +7745,7 @@
     </row>
     <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B91" s="9">
         <v>1</v>
@@ -7814,7 +7811,7 @@
         <v>42</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X91" s="1">
         <v>8</v>
@@ -7822,7 +7819,7 @@
     </row>
     <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="9">
         <v>0</v>
@@ -7888,7 +7885,7 @@
         <v>42</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X92" s="1">
         <v>0</v>
@@ -7896,7 +7893,7 @@
     </row>
     <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="9">
         <v>0</v>
@@ -7962,7 +7959,7 @@
         <v>42</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X93" s="1">
         <v>8.17</v>
@@ -7970,7 +7967,7 @@
     </row>
     <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B94" s="9">
         <v>1</v>
@@ -8036,7 +8033,7 @@
         <v>45</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X94" s="1">
         <v>7.5</v>
@@ -8044,7 +8041,7 @@
     </row>
     <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="9">
         <v>0</v>
@@ -8110,7 +8107,7 @@
         <v>45</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X95" s="1">
         <v>7.67</v>
@@ -8118,7 +8115,7 @@
     </row>
     <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="9">
         <v>0</v>
@@ -8181,10 +8178,10 @@
         <v>44</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X96" s="1">
         <v>7.33</v>
@@ -8192,7 +8189,7 @@
     </row>
     <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="9">
         <v>0</v>
@@ -8255,10 +8252,10 @@
         <v>40</v>
       </c>
       <c r="V97" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X97" s="1">
         <v>7.83</v>
@@ -8266,7 +8263,7 @@
     </row>
     <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="9">
         <v>0</v>
@@ -8332,7 +8329,7 @@
         <v>42</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X98" s="1">
         <v>7.5</v>
@@ -8340,7 +8337,7 @@
     </row>
     <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="9">
         <v>0</v>
@@ -8406,7 +8403,7 @@
         <v>40</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X99" s="1">
         <v>7.58</v>
@@ -8414,7 +8411,7 @@
     </row>
     <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="9">
         <v>0</v>
@@ -8480,7 +8477,7 @@
         <v>42</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X100" s="1">
         <v>7</v>
@@ -8488,7 +8485,7 @@
     </row>
     <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="9">
         <v>0</v>
@@ -8554,7 +8551,7 @@
         <v>42</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X101" s="1">
         <v>7.67</v>
@@ -8562,7 +8559,7 @@
     </row>
     <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="9">
         <v>0</v>
@@ -8628,7 +8625,7 @@
         <v>36</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X102" s="1">
         <v>6.67</v>
@@ -8636,7 +8633,7 @@
     </row>
     <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="9">
         <v>0</v>
@@ -8702,7 +8699,7 @@
         <v>34</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X103" s="1">
         <v>7.42</v>
@@ -8710,7 +8707,7 @@
     </row>
     <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B104" s="9">
         <v>1</v>
@@ -8776,7 +8773,7 @@
         <v>41</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X104" s="1">
         <v>0</v>
@@ -8784,7 +8781,7 @@
     </row>
     <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B105" s="9">
         <v>1</v>
@@ -8850,7 +8847,7 @@
         <v>43</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X105" s="1">
         <v>8.83</v>
@@ -8858,7 +8855,7 @@
     </row>
     <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="9">
         <v>0</v>
@@ -8924,7 +8921,7 @@
         <v>45</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X106" s="1">
         <v>7.08</v>
@@ -8932,7 +8929,7 @@
     </row>
     <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="9">
         <v>0</v>
@@ -8998,7 +8995,7 @@
         <v>45</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X107" s="1">
         <v>8</v>
@@ -9006,7 +9003,7 @@
     </row>
     <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="9">
         <v>0</v>
@@ -9072,7 +9069,7 @@
         <v>41</v>
       </c>
       <c r="W108" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X108" s="1">
         <v>7.67</v>
@@ -9080,7 +9077,7 @@
     </row>
     <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" s="9">
         <v>0</v>
@@ -9146,7 +9143,7 @@
         <v>42</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X109" s="1">
         <v>0</v>
@@ -9154,7 +9151,7 @@
     </row>
     <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B110" s="9">
         <v>1</v>
@@ -9217,10 +9214,10 @@
         <v>39</v>
       </c>
       <c r="V110" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X110" s="1">
         <v>6.42</v>
@@ -9228,7 +9225,7 @@
     </row>
     <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" s="9">
         <v>0</v>
@@ -9294,7 +9291,7 @@
         <v>41</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X111" s="1">
         <v>8.67</v>
@@ -9302,7 +9299,7 @@
     </row>
     <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112" s="9">
         <v>0</v>
@@ -9368,7 +9365,7 @@
         <v>42</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X112" s="1">
         <v>6.67</v>
@@ -9376,7 +9373,7 @@
     </row>
     <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="9">
         <v>0</v>
@@ -9442,7 +9439,7 @@
         <v>42</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X113" s="1">
         <v>0</v>
@@ -9450,7 +9447,7 @@
     </row>
     <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B114" s="9">
         <v>1</v>
@@ -9516,7 +9513,7 @@
         <v>42</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X114" s="1">
         <v>8.33</v>
@@ -9524,7 +9521,7 @@
     </row>
     <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="9">
         <v>0</v>
@@ -9590,7 +9587,7 @@
         <v>38</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X115" s="1">
         <v>0</v>
@@ -9598,7 +9595,7 @@
     </row>
     <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116" s="9">
         <v>0</v>
@@ -9664,7 +9661,7 @@
         <v>41</v>
       </c>
       <c r="W116" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X116" s="1">
         <v>6</v>
@@ -9672,7 +9669,7 @@
     </row>
     <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" s="9">
         <v>0</v>
@@ -9738,7 +9735,7 @@
         <v>43</v>
       </c>
       <c r="W117" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X117" s="1">
         <v>9.67</v>
@@ -9746,7 +9743,7 @@
     </row>
     <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" s="9">
         <v>0</v>
@@ -9812,7 +9809,7 @@
         <v>42</v>
       </c>
       <c r="W118" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X118" s="1">
         <v>8.17</v>
@@ -9820,7 +9817,7 @@
     </row>
     <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" s="9">
         <v>0</v>
@@ -9883,10 +9880,10 @@
         <v>40</v>
       </c>
       <c r="V119" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W119" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X119" s="1">
         <v>6.75</v>
@@ -9894,7 +9891,7 @@
     </row>
     <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B120" s="9">
         <v>1</v>
@@ -9957,10 +9954,10 @@
         <v>39</v>
       </c>
       <c r="V120" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W120" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X120" s="1">
         <v>7.38</v>
@@ -9968,7 +9965,7 @@
     </row>
     <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" s="9">
         <v>0</v>
@@ -10034,7 +10031,7 @@
         <v>41</v>
       </c>
       <c r="W121" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X121" s="1">
         <v>7.33</v>
@@ -10042,7 +10039,7 @@
     </row>
     <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122" s="9">
         <v>1</v>
@@ -10108,7 +10105,7 @@
         <v>36</v>
       </c>
       <c r="W122" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X122" s="1">
         <v>0</v>
@@ -10116,7 +10113,7 @@
     </row>
     <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B123" s="9">
         <v>0</v>
@@ -10182,7 +10179,7 @@
         <v>36</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X123" s="1">
         <v>7.83</v>
@@ -10190,7 +10187,7 @@
     </row>
     <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B124" s="9">
         <v>0</v>
@@ -10256,7 +10253,7 @@
         <v>35</v>
       </c>
       <c r="W124" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X124" s="1">
         <v>0</v>
@@ -10264,7 +10261,7 @@
     </row>
     <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125" s="9">
         <v>0</v>
@@ -10330,7 +10327,7 @@
         <v>35</v>
       </c>
       <c r="W125" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X125" s="1">
         <v>6.33</v>
@@ -10338,7 +10335,7 @@
     </row>
     <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" s="9">
         <v>1</v>
@@ -10404,7 +10401,7 @@
         <v>41</v>
       </c>
       <c r="W126" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X126" s="1">
         <v>7.83</v>
@@ -10412,7 +10409,7 @@
     </row>
     <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B127" s="9">
         <v>1</v>
@@ -10478,7 +10475,7 @@
         <v>46</v>
       </c>
       <c r="W127" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X127" s="1">
         <v>7.67</v>
@@ -10486,7 +10483,7 @@
     </row>
     <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B128" s="9">
         <v>1</v>
@@ -10552,7 +10549,7 @@
         <v>43</v>
       </c>
       <c r="W128" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X128" s="1">
         <v>7.17</v>
@@ -10560,7 +10557,7 @@
     </row>
     <row r="129" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B129" s="9">
         <v>0</v>
@@ -10626,7 +10623,7 @@
         <v>34</v>
       </c>
       <c r="W129" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X129" s="1">
         <v>0</v>
@@ -10634,7 +10631,7 @@
     </row>
     <row r="130" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B130" s="9">
         <v>0</v>
@@ -10697,10 +10694,10 @@
         <v>44</v>
       </c>
       <c r="V130" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W130" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X130" s="1">
         <v>7.17</v>
@@ -10708,7 +10705,7 @@
     </row>
     <row r="131" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131" s="9">
         <v>0</v>
@@ -10774,7 +10771,7 @@
         <v>34</v>
       </c>
       <c r="W131" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X131" s="1">
         <v>0</v>
@@ -10782,7 +10779,7 @@
     </row>
     <row r="132" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B132" s="9">
         <v>0</v>
@@ -10848,7 +10845,7 @@
         <v>41</v>
       </c>
       <c r="W132" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X132" s="1">
         <v>7.5</v>
@@ -10856,7 +10853,7 @@
     </row>
     <row r="133" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133" s="9">
         <v>0</v>
@@ -10922,7 +10919,7 @@
         <v>42</v>
       </c>
       <c r="W133" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X133" s="1">
         <v>7</v>
@@ -10930,7 +10927,7 @@
     </row>
     <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B134" s="9">
         <v>0</v>
@@ -10975,7 +10972,7 @@
         <v>23</v>
       </c>
       <c r="P134" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q134" s="12">
         <v>9</v>
@@ -10998,13 +10995,13 @@
       <c r="W134" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X134" s="1" t="s">
-        <v>19</v>
+      <c r="X134" s="1">
+        <v>6.21</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B135" s="9">
         <v>0</v>
@@ -11070,7 +11067,7 @@
         <v>41</v>
       </c>
       <c r="W135" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X135" s="1">
         <v>0</v>
@@ -11078,7 +11075,7 @@
     </row>
     <row r="136" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136" s="9">
         <v>0</v>
@@ -11144,7 +11141,7 @@
         <v>36</v>
       </c>
       <c r="W136" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X136" s="1">
         <v>7.42</v>
@@ -11152,7 +11149,7 @@
     </row>
     <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B137" s="9">
         <v>1</v>
@@ -11215,10 +11212,10 @@
         <v>39</v>
       </c>
       <c r="V137" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W137" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X137" s="1">
         <v>7.42</v>
@@ -11226,7 +11223,7 @@
     </row>
     <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138" s="9">
         <v>0</v>
@@ -11300,7 +11297,7 @@
     </row>
     <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139" s="9">
         <v>0</v>
@@ -11366,7 +11363,7 @@
         <v>35</v>
       </c>
       <c r="W139" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X139" s="1">
         <v>5.96</v>
@@ -11374,7 +11371,7 @@
     </row>
     <row r="140" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B140" s="9">
         <v>1</v>
@@ -11440,7 +11437,7 @@
         <v>46</v>
       </c>
       <c r="W140" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X140" s="1">
         <v>8.17</v>
@@ -11448,7 +11445,7 @@
     </row>
     <row r="141" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B141" s="9">
         <v>0</v>
@@ -11514,7 +11511,7 @@
         <v>35</v>
       </c>
       <c r="W141" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X141" s="1">
         <v>6.21</v>
@@ -11522,7 +11519,7 @@
     </row>
     <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" s="9">
         <v>0</v>
@@ -11588,7 +11585,7 @@
         <v>42</v>
       </c>
       <c r="W142" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X142" s="1">
         <v>7.13</v>
@@ -11596,7 +11593,7 @@
     </row>
     <row r="143" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B143" s="9">
         <v>0</v>
@@ -11662,7 +11659,7 @@
         <v>40</v>
       </c>
       <c r="W143" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X143" s="1">
         <v>6.17</v>
@@ -11670,7 +11667,7 @@
     </row>
     <row r="144" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B144" s="9">
         <v>0</v>
@@ -11736,7 +11733,7 @@
         <v>44</v>
       </c>
       <c r="W144" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X144" s="1">
         <v>8.17</v>
@@ -11744,7 +11741,7 @@
     </row>
     <row r="145" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B145" s="9">
         <v>0</v>
@@ -11807,10 +11804,10 @@
         <v>40</v>
       </c>
       <c r="V145" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W145" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X145" s="1">
         <v>6.38</v>
@@ -11818,7 +11815,7 @@
     </row>
     <row r="146" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B146" s="9">
         <v>0</v>
@@ -11881,10 +11878,10 @@
         <v>41</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W146" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X146" s="1">
         <v>6.67</v>
@@ -11892,7 +11889,7 @@
     </row>
     <row r="147" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" s="9">
         <v>0</v>
@@ -11955,10 +11952,10 @@
         <v>42</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W147" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X147" s="1">
         <v>6.71</v>
@@ -11966,7 +11963,7 @@
     </row>
     <row r="148" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B148" s="9">
         <v>0</v>
@@ -12032,7 +12029,7 @@
         <v>37</v>
       </c>
       <c r="W148" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X148" s="1">
         <v>0</v>
@@ -12040,7 +12037,7 @@
     </row>
     <row r="149" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B149" s="9">
         <v>0</v>
@@ -12106,7 +12103,7 @@
         <v>37</v>
       </c>
       <c r="W149" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X149" s="1">
         <v>6.71</v>
@@ -12114,7 +12111,7 @@
     </row>
     <row r="150" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B150" s="9">
         <v>1</v>
@@ -12180,7 +12177,7 @@
         <v>32</v>
       </c>
       <c r="W150" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X150" s="1">
         <v>0</v>
@@ -12188,7 +12185,7 @@
     </row>
     <row r="151" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B151" s="9">
         <v>0</v>
@@ -12251,10 +12248,10 @@
         <v>43</v>
       </c>
       <c r="V151" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W151" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X151" s="1">
         <v>8</v>
@@ -12262,7 +12259,7 @@
     </row>
     <row r="152" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B152" s="9">
         <v>1</v>
@@ -12325,10 +12322,10 @@
         <v>43</v>
       </c>
       <c r="V152" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W152" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X152" s="1">
         <v>8.5</v>
@@ -12336,7 +12333,7 @@
     </row>
     <row r="153" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B153" s="9">
         <v>1</v>
@@ -12399,10 +12396,10 @@
         <v>42</v>
       </c>
       <c r="V153" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W153" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X153" s="1">
         <v>8.5</v>
@@ -12410,7 +12407,7 @@
     </row>
     <row r="154" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="9">
         <v>0</v>
@@ -12476,7 +12473,7 @@
         <v>39</v>
       </c>
       <c r="W154" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X154" s="1">
         <v>7.17</v>
@@ -12484,7 +12481,7 @@
     </row>
     <row r="155" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B155" s="9">
         <v>0</v>
@@ -12550,7 +12547,7 @@
         <v>44</v>
       </c>
       <c r="W155" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X155" s="1">
         <v>9.17</v>
@@ -12558,7 +12555,7 @@
     </row>
     <row r="156" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156" s="9">
         <v>0</v>
@@ -12624,7 +12621,7 @@
         <v>40</v>
       </c>
       <c r="W156" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X156" s="1">
         <v>7</v>
@@ -12632,7 +12629,7 @@
     </row>
     <row r="157" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="9">
         <v>0</v>
@@ -12698,7 +12695,7 @@
         <v>37</v>
       </c>
       <c r="W157" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X157" s="1">
         <v>0</v>
@@ -12706,7 +12703,7 @@
     </row>
     <row r="158" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B158" s="9">
         <v>0</v>
@@ -12772,7 +12769,7 @@
         <v>40</v>
       </c>
       <c r="W158" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X158" s="1">
         <v>0</v>
@@ -12780,7 +12777,7 @@
     </row>
     <row r="159" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B159" s="9">
         <v>0</v>
@@ -12846,7 +12843,7 @@
         <v>36</v>
       </c>
       <c r="W159" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X159" s="1">
         <v>6.21</v>
@@ -12854,7 +12851,7 @@
     </row>
     <row r="160" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B160" s="9">
         <v>0</v>
@@ -12920,7 +12917,7 @@
         <v>25</v>
       </c>
       <c r="W160" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X160" s="1">
         <v>0</v>
@@ -12928,7 +12925,7 @@
     </row>
     <row r="161" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B161" s="9">
         <v>0</v>
@@ -12994,7 +12991,7 @@
         <v>37</v>
       </c>
       <c r="W161" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X161" s="1">
         <v>5.42</v>
@@ -13002,7 +12999,7 @@
     </row>
     <row r="162" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B162" s="9">
         <v>0</v>
@@ -13068,7 +13065,7 @@
         <v>35</v>
       </c>
       <c r="W162" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X162" s="1">
         <v>0</v>
@@ -13076,7 +13073,7 @@
     </row>
     <row r="163" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B163" s="9">
         <v>0</v>
@@ -13142,7 +13139,7 @@
         <v>38</v>
       </c>
       <c r="W163" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X163" s="1">
         <v>6.29</v>
@@ -13150,7 +13147,7 @@
     </row>
     <row r="164" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B164" s="9">
         <v>0</v>
@@ -13216,7 +13213,7 @@
         <v>45</v>
       </c>
       <c r="W164" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X164" s="1">
         <v>0</v>
@@ -13224,7 +13221,7 @@
     </row>
     <row r="165" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B165" s="9">
         <v>1</v>
@@ -13290,7 +13287,7 @@
         <v>37</v>
       </c>
       <c r="W165" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X165" s="1">
         <v>0</v>
@@ -13298,7 +13295,7 @@
     </row>
     <row r="166" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" s="9">
         <v>0</v>
@@ -13364,7 +13361,7 @@
         <v>25</v>
       </c>
       <c r="W166" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X166" s="1">
         <v>0</v>
@@ -13372,13 +13369,13 @@
     </row>
     <row r="167" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B167" s="9">
+        <v>0</v>
+      </c>
+      <c r="C167" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="B167" s="9">
-        <v>0</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="D167" s="10">
         <v>34</v>
@@ -13446,13 +13443,13 @@
     </row>
     <row r="168" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B168" s="9">
         <v>1</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D168" s="7">
         <v>0</v>
@@ -13512,7 +13509,7 @@
         <v>38</v>
       </c>
       <c r="W168" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X168" s="1">
         <v>0</v>
@@ -13520,13 +13517,13 @@
     </row>
     <row r="169" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B169" s="9">
         <v>1</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D169" s="6">
         <v>20</v>
@@ -13586,7 +13583,7 @@
         <v>35</v>
       </c>
       <c r="W169" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X169" s="1">
         <v>0</v>
